--- a/Grundmall/Grundmall.xlsx
+++ b/Grundmall/Grundmall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Combi\PycharmProjects\File_Transfer_Schedule\Grundmall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112FDCAE-7F21-4C50-BCAF-C06713BA6220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971A8A3A-2BBB-47E1-BC80-22EBA7398300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="2535" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mall" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>Björkmossen</t>
   </si>
@@ -68,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dddd\,\ dd\ mm\,\ yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,12 +106,6 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -233,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -255,9 +249,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -270,22 +261,19 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,36 +554,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="4" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="10" width="10.7109375" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
@@ -636,270 +622,256 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-    </row>
-    <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
